--- a/target/test-classes/Data/TestRunner.xlsx
+++ b/target/test-classes/Data/TestRunner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarZPlay\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarZPlayAutomation\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37643B4B-E847-4646-AD98-77BF4BA59183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618AE6B2-0D89-4703-9489-AB8F12ED51F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81C16DB0-A91E-4245-A63A-E0E19A862DCA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
   <si>
     <t>RunMode</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>landscape_poster_v1</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -815,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -850,7 +853,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -885,7 +888,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -920,7 +923,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>30</v>
@@ -955,7 +958,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
@@ -990,7 +993,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
@@ -1025,7 +1028,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>33</v>
@@ -1060,7 +1063,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>34</v>
@@ -1095,7 +1098,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1130,7 +1133,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>28</v>
@@ -1165,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>

--- a/target/test-classes/Data/TestRunner.xlsx
+++ b/target/test-classes/Data/TestRunner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarZPlayAutomation\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618AE6B2-0D89-4703-9489-AB8F12ED51F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF57066-2EBA-402D-ABBE-F86E7D5181FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81C16DB0-A91E-4245-A63A-E0E19A862DCA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="85">
   <si>
     <t>RunMode</t>
   </si>
@@ -275,7 +275,13 @@
     <t>landscape_poster_v1</t>
   </si>
   <si>
-    <t>No</t>
+    <t>TC_Negatice</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>majidtv</t>
   </si>
 </sst>
 </file>
@@ -680,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F567679-4974-4DF8-AB27-7D474C1ABDF4}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -780,7 +786,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -818,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -853,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -888,7 +894,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -923,7 +929,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
@@ -993,7 +999,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>32</v>
@@ -1028,7 +1034,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>33</v>
@@ -1060,22 +1066,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
@@ -1095,34 +1101,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2">
         <v>18</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>13</v>
@@ -1130,13 +1136,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -1151,7 +1157,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>18</v>
@@ -1165,28 +1171,28 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>18</v>
@@ -1195,6 +1201,41 @@
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1208,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6395B6CC-06B9-4BFA-B2A9-1BB98A664A29}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
